--- a/ClientesProyecto.xlsx
+++ b/ClientesProyecto.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -836,7 +836,40 @@
           <t>León</t>
         </is>
       </c>
-      <c r="G12" s="3" t="n">
+      <c r="G12" s="2" t="n">
+        <v>45072</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Jose Miguel Arce Lujano</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>25</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Tarjeta</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="n">
         <v>45072</v>
       </c>
     </row>
